--- a/experiment_data_and_analysis/FusionEnergy.xlsx
+++ b/experiment_data_and_analysis/FusionEnergy.xlsx
@@ -1804,6 +1804,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>DeltaEnergy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4764,16 +4789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6308,8 +6333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC788EEC-4F5B-4459-8F2C-9F77C67003B4}">
   <dimension ref="A3:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" activeCellId="3" sqref="D3:D22 H3:H22 L3:L22 P3:P22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
